--- a/views/report/_resumerep2.xlsx
+++ b/views/report/_resumerep2.xlsx
@@ -120,29 +120,29 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:C2"/>
+  <dimension ref="A4:C4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H20" activeCellId="0" sqref="H20"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.38775510204082"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="5.83163265306122"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.969387755102"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="30.4285714285714"/>
-    <col collapsed="false" hidden="false" max="38" min="4" style="0" width="5.10204081632653"/>
-    <col collapsed="false" hidden="false" max="1025" min="39" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="69" min="4" style="0" width="5.10204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="70" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B4" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C4" s="0" t="s">
         <v>2</v>
       </c>
     </row>
